--- a/docs/CodeSystem-CSOrigenDiscapacidad.xlsx
+++ b/docs/CodeSystem-CSOrigenDiscapacidad.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-CSOrigenDiscapacidad.xlsx
+++ b/docs/CodeSystem-CSOrigenDiscapacidad.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -147,28 +147,28 @@
     <t>02</t>
   </si>
   <si>
-    <t xml:space="preserve">Origen sensorial visual </t>
-  </si>
-  <si>
-    <t>03</t>
+    <t>Origen sensorial visual</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
   <si>
     <t>Origen sensorial auditivo</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origen mental síquico </t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
-    <t xml:space="preserve">Origen mental intelectual </t>
+    <t>Origen mental síquico</t>
   </si>
   <si>
     <t>06</t>
+  </si>
+  <si>
+    <t>Origen mental intelectual</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
   <si>
     <t>Origen múltiple</t>

--- a/docs/CodeSystem-CSOrigenDiscapacidad.xlsx
+++ b/docs/CodeSystem-CSOrigenDiscapacidad.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
